--- a/Projects/Penny_cash/Nova pasta/anomalies.xlsx
+++ b/Projects/Penny_cash/Nova pasta/anomalies.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,6 +490,26 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>Cumulative Debit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Cumulative Credit</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Cumulative Cashflow</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Month</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>Type</t>
         </is>
       </c>
@@ -530,7 +550,19 @@
       <c r="K2" t="n">
         <v>-56560.56</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" t="n">
+        <v>19839.71</v>
+      </c>
+      <c r="M2" t="n">
+        <v>77086.51999999999</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-57246.80999999999</v>
+      </c>
+      <c r="O2" t="n">
+        <v>5</v>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>Value Anomalies</t>
         </is>
@@ -572,7 +604,19 @@
       <c r="K3" t="n">
         <v>-36.96</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" t="n">
+        <v>34598.4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>92684.91</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-58086.51</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6</v>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>Keyword Anomalies</t>
         </is>
@@ -614,7 +658,19 @@
       <c r="K4" t="n">
         <v>-73.44</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="n">
+        <v>39582.52</v>
+      </c>
+      <c r="M4" t="n">
+        <v>100666.02</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-61083.49999999999</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7</v>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>Keyword Anomalies</t>
         </is>
@@ -656,7 +712,19 @@
       <c r="K5" t="n">
         <v>-111.09</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="n">
+        <v>49452.7</v>
+      </c>
+      <c r="M5" t="n">
+        <v>104494.46</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-55041.75999999999</v>
+      </c>
+      <c r="O5" t="n">
+        <v>8</v>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>Keyword Anomalies</t>
         </is>
